--- a/data/data_monitoreo_cruceta.xlsx
+++ b/data/data_monitoreo_cruceta.xlsx
@@ -448,101 +448,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SALAZAR VEGA MARIA FERNANDA</t>
+          <t>PALACIOS PANTA LUIS MIGUEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
+          <t>PANTA VARONA CANDY ELIZABETH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VEGA ZAPATA JESUS GABRIEL</t>
+          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
+          <t>SALAZAR VEGA MARIA FERNANDA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TALLEDO ELIAS ANDREA ALESSANDRA</t>
+          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HIDALGO MOSCOL YESSICA JAZMIN</t>
+          <t>CRISANTO CARMEN ROSITA ABIGAIL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CRISANTO CARMEN ROSITA ABIGAIL</t>
+          <t>ELIAS MACHADO JUANA MARGOT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELIAS MACHADO JUANA MARGOT</t>
+          <t>HIDALGO MOSCOL YESSICA JAZMIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PALACIOS PANTA LUIS MIGUEL</t>
+          <t>VEGA ZAPATA JESUS GABRIEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PANTA VARONA CANDY ELIZABETH</t>
+          <t>TALLEDO ELIAS ANDREA ALESSANDRA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruceta.xlsx
+++ b/data/data_monitoreo_cruceta.xlsx
@@ -448,91 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PALACIOS PANTA LUIS MIGUEL</t>
+          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PANTA VARONA CANDY ELIZABETH</t>
+          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
+          <t>PALACIOS PANTA LUIS MIGUEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SALAZAR VEGA MARIA FERNANDA</t>
+          <t>CRISANTO CARMEN ROSITA ABIGAIL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
+          <t>SALAZAR VEGA MARIA FERNANDA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CRISANTO CARMEN ROSITA ABIGAIL</t>
+          <t>PANTA VARONA CANDY ELIZABETH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELIAS MACHADO JUANA MARGOT</t>
+          <t>VEGA ZAPATA JESUS GABRIEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HIDALGO MOSCOL YESSICA JAZMIN</t>
+          <t>ELIAS MACHADO JUANA MARGOT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VEGA ZAPATA JESUS GABRIEL</t>
+          <t>HIDALGO MOSCOL YESSICA JAZMIN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruceta.xlsx
+++ b/data/data_monitoreo_cruceta.xlsx
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
+          <t>PALACIOS PANTA LUIS MIGUEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
+          <t>VEGA ZAPATA JESUS GABRIEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PALACIOS PANTA LUIS MIGUEL</t>
+          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PANTA VARONA CANDY ELIZABETH</t>
+          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VEGA ZAPATA JESUS GABRIEL</t>
+          <t>PANTA VARONA CANDY ELIZABETH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruceta.xlsx
+++ b/data/data_monitoreo_cruceta.xlsx
@@ -448,61 +448,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PALACIOS PANTA LUIS MIGUEL</t>
+          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VEGA ZAPATA JESUS GABRIEL</t>
+          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
+          <t>PALACIOS PANTA LUIS MIGUEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRISANTO CARMEN ROSITA ABIGAIL</t>
+          <t>VEGA ZAPATA JESUS GABRIEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SALAZAR VEGA MARIA FERNANDA</t>
+          <t>ELIAS MACHADO JUANA MARGOT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAZA RIOFRIO CINTHIA NATELAHI</t>
+          <t>CRISANTO CARMEN ROSITA ABIGAIL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELIAS MACHADO JUANA MARGOT</t>
+          <t>SALAZAR VEGA MARIA FERNANDA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruceta.xlsx
+++ b/data/data_monitoreo_cruceta.xlsx
@@ -452,27 +452,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
+          <t>PALACIOS PANTA LUIS MIGUEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PALACIOS PANTA LUIS MIGUEL</t>
+          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
@@ -482,17 +482,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELIAS MACHADO JUANA MARGOT</t>
+          <t>PANTA VARONA CANDY ELIZABETH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -502,17 +502,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PANTA VARONA CANDY ELIZABETH</t>
+          <t>ELIAS MACHADO JUANA MARGOT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_cruceta.xlsx
+++ b/data/data_monitoreo_cruceta.xlsx
@@ -452,47 +452,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PALACIOS PANTA LUIS MIGUEL</t>
+          <t>VEGA ZAPATA JESUS GABRIEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
+          <t>PANTA VARONA CANDY ELIZABETH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VEGA ZAPATA JESUS GABRIEL</t>
+          <t>PALACIOS PANTA LUIS MIGUEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PANTA VARONA CANDY ELIZABETH</t>
+          <t>PANTA NIMA FREDDY ROLAND JUNIOR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
